--- a/NSFL/NSFL/Team Files/AllPlayersCheck.xlsx
+++ b/NSFL/NSFL/Team Files/AllPlayersCheck.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>(S15) - Matteo Maximin - CB,TPE: 50, http://nsfl.jcink.net/index.php?showtopic=12198,</t>
   </si>
@@ -114,9 +114,6 @@
     <t>(S11) - Ace Boogie Jr. - CB,TPE: 62, http://nsfl.jcink.net/index.php?showtopic=10446,</t>
   </si>
   <si>
-    <t>(S10) - True Pierce -LB,TPE: 76, http://nsfl.jcink.net/index.php?showtopic=9797,</t>
-  </si>
-  <si>
     <t>(S10) - Jake Verden - CB,TPE: 138, http://nsfl.jcink.net/index.php?showtopic=9637,</t>
   </si>
   <si>
@@ -741,9 +738,6 @@
     <t>(S4) - Haruki Ishigawa - DE,TPE: 224, http://nsfl.jcink.net/index.php?showtopic=4656,</t>
   </si>
   <si>
-    <t>(S13) - Ladarius Ansong -TE,TPE: 50, http://nsfl.jcink.net/index.php?showtopic=11418,</t>
-  </si>
-  <si>
     <t>(S13) - Harvey Danger - TE,TPE: 67, http://nsfl.jcink.net/index.php?showtopic=11075,</t>
   </si>
   <si>
@@ -1159,6 +1153,18 @@
   </si>
   <si>
     <t>(S5) - Ryan Sierra - DT,TPE: 175, http://nsfl.jcink.net/index.php?showtopic=5326,</t>
+  </si>
+  <si>
+    <t>(S15) - André Thornton - WR, TPE: 50, http://nsfl.jcink.net/index.php?showtopic=11988</t>
+  </si>
+  <si>
+    <t>(S15) - RKANSAW N/A - RB, TPE: 50, http://nsfl.jcink.net/index.php?showtopic=12778</t>
+  </si>
+  <si>
+    <t>(S13) - Ladarius Ansong - TE,TPE: 50, http://nsfl.jcink.net/index.php?showtopic=11418,</t>
+  </si>
+  <si>
+    <t>(S10) - True Pierce - LB,TPE: 76, http://nsfl.jcink.net/index.php?showtopic=9797,</t>
   </si>
 </sst>
 </file>
@@ -1541,40 +1547,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,7 +1593,7 @@
         <v>FL</v>
       </c>
       <c r="D2" t="str">
-        <f>MID(G2,FIND("-",G2)+2,FIND("-",G2,FIND("-",G2)+1)-FIND("-",G2)-2)</f>
+        <f>MID(G2,FIND("- ",G2)+2,FIND("- ",G2,FIND("- ",G2)+1)-FIND("- ",G2)-2)</f>
         <v xml:space="preserve">Marvin Dogan </v>
       </c>
       <c r="F2">
@@ -1595,7 +1601,7 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,7 +1614,7 @@
         <v>FL</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="1">MID(G3,FIND("-",G3)+2,FIND("-",G3,FIND("-",G3)+1)-FIND("-",G3)-2)</f>
+        <f t="shared" ref="D3:D66" si="1">MID(G3,FIND("- ",G3)+2,FIND("- ",G3,FIND("- ",G3)+1)-FIND("- ",G3)-2)</f>
         <v xml:space="preserve">Mathew Nector </v>
       </c>
       <c r="F3">
@@ -1616,7 +1622,7 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,7 +1643,7 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,7 +1664,7 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,7 +1685,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,7 +1706,7 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,7 +1727,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1748,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,7 +1832,7 @@
         <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1847,7 +1853,7 @@
         <v>685</v>
       </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,7 +1874,7 @@
         <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,7 +1895,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1916,7 @@
         <v>875</v>
       </c>
       <c r="G17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,7 +1958,7 @@
         <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2015,7 +2021,7 @@
         <v>461</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,7 +2042,7 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2063,7 @@
         <v>279</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,7 +2084,7 @@
         <v>979</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,7 +2105,7 @@
         <v>323</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2126,7 @@
         <v>982</v>
       </c>
       <c r="G27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,7 +2147,7 @@
         <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,7 +2168,7 @@
         <v>338</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2183,7 +2189,7 @@
         <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,7 +2210,7 @@
         <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,7 +2231,7 @@
         <v>845</v>
       </c>
       <c r="G32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,7 +2252,7 @@
         <v>716</v>
       </c>
       <c r="G33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,7 +2273,7 @@
         <v>950</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,7 +2294,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2309,7 +2315,7 @@
         <v>691</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,7 +2336,7 @@
         <v>468</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,7 +2357,7 @@
         <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2372,7 +2378,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,7 +2399,7 @@
         <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2414,7 +2420,7 @@
         <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2435,7 +2441,7 @@
         <v>382</v>
       </c>
       <c r="G42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,7 +2462,7 @@
         <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,7 +2483,7 @@
         <v>395</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2498,7 +2504,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,7 +2525,7 @@
         <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2540,7 +2546,7 @@
         <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2561,7 +2567,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2582,7 +2588,7 @@
         <v>697</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2603,7 +2609,7 @@
         <v>358</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,7 +2651,7 @@
         <v>176</v>
       </c>
       <c r="G52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,7 +2672,7 @@
         <v>672</v>
       </c>
       <c r="G53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2687,7 +2693,7 @@
         <v>741</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,7 +2714,7 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,7 +2735,7 @@
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,7 +2756,7 @@
         <v>345</v>
       </c>
       <c r="G57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2777,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2792,7 +2798,7 @@
         <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,7 +2819,7 @@
         <v>662</v>
       </c>
       <c r="G60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2834,7 +2840,7 @@
         <v>216</v>
       </c>
       <c r="G61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,7 +2861,7 @@
         <v>451</v>
       </c>
       <c r="G62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,7 +2882,7 @@
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,7 +2903,7 @@
         <v>213</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,7 +2924,7 @@
         <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2945,7 @@
         <v>576</v>
       </c>
       <c r="G66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2952,7 +2958,7 @@
         <v>S11</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="4">MID(G67,FIND("-",G67)+2,FIND("-",G67,FIND("-",G67)+1)-FIND("-",G67)-2)</f>
+        <f t="shared" ref="D67:D130" si="4">MID(G67,FIND("- ",G67)+2,FIND("- ",G67,FIND("- ",G67)+1)-FIND("- ",G67)-2)</f>
         <v xml:space="preserve">Johnson Cox III </v>
       </c>
       <c r="F67">
@@ -2960,7 +2966,7 @@
         <v>258</v>
       </c>
       <c r="G67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2981,7 +2987,7 @@
         <v>421</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,7 +3008,7 @@
         <v>558</v>
       </c>
       <c r="G69" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3023,7 +3029,7 @@
         <v>614</v>
       </c>
       <c r="G70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3044,7 +3050,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,7 +3071,7 @@
         <v>594</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3086,7 +3092,7 @@
         <v>681</v>
       </c>
       <c r="G73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3107,7 +3113,7 @@
         <v>800</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,7 +3134,7 @@
         <v>520</v>
       </c>
       <c r="G75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3149,7 +3155,7 @@
         <v>386</v>
       </c>
       <c r="G76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3170,7 +3176,7 @@
         <v>390</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,7 +3197,7 @@
         <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3212,7 +3218,7 @@
         <v>316</v>
       </c>
       <c r="G79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,7 +3239,7 @@
         <v>760</v>
       </c>
       <c r="G80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,7 +3260,7 @@
         <v>595</v>
       </c>
       <c r="G81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,7 +3281,7 @@
         <v>212</v>
       </c>
       <c r="G82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3296,7 +3302,7 @@
         <v>177</v>
       </c>
       <c r="G83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3317,7 +3323,7 @@
         <v>284</v>
       </c>
       <c r="G84" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,7 +3344,7 @@
         <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,7 +3365,7 @@
         <v>500</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3380,7 +3386,7 @@
         <v>168</v>
       </c>
       <c r="G87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3401,7 +3407,7 @@
         <v>412</v>
       </c>
       <c r="G88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3422,7 +3428,7 @@
         <v>491</v>
       </c>
       <c r="G89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3443,7 +3449,7 @@
         <v>551</v>
       </c>
       <c r="G90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,7 +3470,7 @@
         <v>419</v>
       </c>
       <c r="G91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3478,14 +3484,14 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="4"/>
-        <v>Beauregard Smallwood</v>
+        <v xml:space="preserve">Beauregard Smallwood-Chess </v>
       </c>
       <c r="F92">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="G92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,7 +3512,7 @@
         <v>495</v>
       </c>
       <c r="G93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3527,7 +3533,7 @@
         <v>81</v>
       </c>
       <c r="G94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,7 +3554,7 @@
         <v>99</v>
       </c>
       <c r="G95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,7 +3575,7 @@
         <v>61</v>
       </c>
       <c r="G96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3611,7 +3617,7 @@
         <v>178</v>
       </c>
       <c r="G98" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3632,7 +3638,7 @@
         <v>615</v>
       </c>
       <c r="G99" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3653,7 +3659,7 @@
         <v>309</v>
       </c>
       <c r="G100" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,7 +3680,7 @@
         <v>649</v>
       </c>
       <c r="G101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3695,7 +3701,7 @@
         <v>209</v>
       </c>
       <c r="G102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3716,7 +3722,7 @@
         <v>550</v>
       </c>
       <c r="G103" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3737,7 +3743,7 @@
         <v>430</v>
       </c>
       <c r="G104" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3758,7 +3764,7 @@
         <v>50</v>
       </c>
       <c r="G105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,7 +3785,7 @@
         <v>313</v>
       </c>
       <c r="G106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3800,7 +3806,7 @@
         <v>228</v>
       </c>
       <c r="G107" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3821,7 +3827,7 @@
         <v>273</v>
       </c>
       <c r="G108" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3842,7 +3848,7 @@
         <v>666</v>
       </c>
       <c r="G109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3884,7 +3890,7 @@
         <v>182</v>
       </c>
       <c r="G111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3911,7 @@
         <v>240</v>
       </c>
       <c r="G112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3926,7 +3932,7 @@
         <v>162</v>
       </c>
       <c r="G113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3947,7 +3953,7 @@
         <v>148</v>
       </c>
       <c r="G114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3968,7 +3974,7 @@
         <v>182</v>
       </c>
       <c r="G115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3989,7 +3995,7 @@
         <v>484</v>
       </c>
       <c r="G116" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,7 +4037,7 @@
         <v>485</v>
       </c>
       <c r="G118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4073,7 +4079,7 @@
         <v>414</v>
       </c>
       <c r="G120" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4094,7 +4100,7 @@
         <v>257</v>
       </c>
       <c r="G121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4115,7 +4121,7 @@
         <v>126</v>
       </c>
       <c r="G122" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,7 +4142,7 @@
         <v>406</v>
       </c>
       <c r="G123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4157,7 +4163,7 @@
         <v>95</v>
       </c>
       <c r="G124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4178,7 +4184,7 @@
         <v>227</v>
       </c>
       <c r="G125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,7 +4205,7 @@
         <v>124</v>
       </c>
       <c r="G126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4220,7 +4226,7 @@
         <v>167</v>
       </c>
       <c r="G127" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4241,7 +4247,7 @@
         <v>249</v>
       </c>
       <c r="G128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4262,7 +4268,7 @@
         <v>396</v>
       </c>
       <c r="G129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,7 +4289,7 @@
         <v>50</v>
       </c>
       <c r="G130" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4296,7 +4302,7 @@
         <v>S12</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="7">MID(G131,FIND("-",G131)+2,FIND("-",G131,FIND("-",G131)+1)-FIND("-",G131)-2)</f>
+        <f t="shared" ref="D131:D194" si="7">MID(G131,FIND("- ",G131)+2,FIND("- ",G131,FIND("- ",G131)+1)-FIND("- ",G131)-2)</f>
         <v xml:space="preserve">Soupy McBrain </v>
       </c>
       <c r="F131">
@@ -4304,7 +4310,7 @@
         <v>155</v>
       </c>
       <c r="G131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4346,7 +4352,7 @@
         <v>125</v>
       </c>
       <c r="G133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,7 +4373,7 @@
         <v>50</v>
       </c>
       <c r="G134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,7 +4394,7 @@
         <v>512</v>
       </c>
       <c r="G135" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4409,7 +4415,7 @@
         <v>439</v>
       </c>
       <c r="G136" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,7 +4436,7 @@
         <v>216</v>
       </c>
       <c r="G137" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4451,7 +4457,7 @@
         <v>429</v>
       </c>
       <c r="G138" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4472,7 +4478,7 @@
         <v>141</v>
       </c>
       <c r="G139" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4493,7 +4499,7 @@
         <v>398</v>
       </c>
       <c r="G140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,7 +4520,7 @@
         <v>143</v>
       </c>
       <c r="G141" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4535,7 +4541,7 @@
         <v>166</v>
       </c>
       <c r="G142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4556,7 +4562,7 @@
         <v>231</v>
       </c>
       <c r="G143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,7 +4583,7 @@
         <v>142</v>
       </c>
       <c r="G144" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4598,7 +4604,7 @@
         <v>190</v>
       </c>
       <c r="G145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4619,7 +4625,7 @@
         <v>155</v>
       </c>
       <c r="G146" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,7 +4646,7 @@
         <v>279</v>
       </c>
       <c r="G147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4661,7 +4667,7 @@
         <v>99</v>
       </c>
       <c r="G148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4682,7 +4688,7 @@
         <v>50</v>
       </c>
       <c r="G149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,7 +4709,7 @@
         <v>67</v>
       </c>
       <c r="G150" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4745,7 +4751,7 @@
         <v>69</v>
       </c>
       <c r="G152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4766,7 +4772,7 @@
         <v>264</v>
       </c>
       <c r="G153" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,7 +4793,7 @@
         <v>484</v>
       </c>
       <c r="G154" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4808,7 +4814,7 @@
         <v>52</v>
       </c>
       <c r="G155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4829,7 +4835,7 @@
         <v>165</v>
       </c>
       <c r="G156" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4850,7 +4856,7 @@
         <v>74</v>
       </c>
       <c r="G157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4871,7 +4877,7 @@
         <v>50</v>
       </c>
       <c r="G158" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4892,7 +4898,7 @@
         <v>304</v>
       </c>
       <c r="G159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,7 +4912,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="7"/>
-        <v>Rembrandt Khalil</v>
+        <v xml:space="preserve">Rembrandt Khalil-Bugatti </v>
       </c>
       <c r="F160">
         <f t="shared" si="8"/>
@@ -4934,7 +4940,7 @@
         <v>383</v>
       </c>
       <c r="G161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4955,7 +4961,7 @@
         <v>444</v>
       </c>
       <c r="G162" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4976,7 +4982,7 @@
         <v>219</v>
       </c>
       <c r="G163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4997,7 +5003,7 @@
         <v>55</v>
       </c>
       <c r="G164" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5039,7 +5045,7 @@
         <v>57</v>
       </c>
       <c r="G166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5060,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="G167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,7 +5129,7 @@
         <v>314</v>
       </c>
       <c r="G170" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5144,7 +5150,7 @@
         <v>267</v>
       </c>
       <c r="G171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5165,7 +5171,7 @@
         <v>82</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5186,7 +5192,7 @@
         <v>79</v>
       </c>
       <c r="G173" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5207,7 +5213,7 @@
         <v>163</v>
       </c>
       <c r="G174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5228,7 +5234,7 @@
         <v>50</v>
       </c>
       <c r="G175" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,7 +5255,7 @@
         <v>158</v>
       </c>
       <c r="G176" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5270,7 +5276,7 @@
         <v>114</v>
       </c>
       <c r="G177" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,7 +5297,7 @@
         <v>57</v>
       </c>
       <c r="G178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5312,7 +5318,7 @@
         <v>136</v>
       </c>
       <c r="G179" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5333,7 +5339,7 @@
         <v>50</v>
       </c>
       <c r="G180" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5375,7 +5381,7 @@
         <v>125</v>
       </c>
       <c r="G182" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5396,7 +5402,7 @@
         <v>167</v>
       </c>
       <c r="G183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5417,7 +5423,7 @@
         <v>50</v>
       </c>
       <c r="G184" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5438,7 +5444,7 @@
         <v>131</v>
       </c>
       <c r="G185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5459,7 +5465,7 @@
         <v>55</v>
       </c>
       <c r="G186" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5501,7 +5507,7 @@
         <v>50</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5522,7 +5528,7 @@
         <v>50</v>
       </c>
       <c r="G189" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5543,7 +5549,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5564,7 +5570,7 @@
         <v>133</v>
       </c>
       <c r="G191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,7 +5591,7 @@
         <v>50</v>
       </c>
       <c r="G192" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5627,7 +5633,7 @@
         <v>50</v>
       </c>
       <c r="G194" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5640,7 +5646,7 @@
         <v>S15</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="10">MID(G195,FIND("-",G195)+2,FIND("-",G195,FIND("-",G195)+1)-FIND("-",G195)-2)</f>
+        <f t="shared" ref="D195:D258" si="10">MID(G195,FIND("- ",G195)+2,FIND("- ",G195,FIND("- ",G195)+1)-FIND("- ",G195)-2)</f>
         <v xml:space="preserve">Apollo Reed </v>
       </c>
       <c r="F195">
@@ -5648,7 +5654,7 @@
         <v>50</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5669,7 +5675,7 @@
         <v>50</v>
       </c>
       <c r="G196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5690,7 +5696,7 @@
         <v>50</v>
       </c>
       <c r="G197" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5711,7 +5717,7 @@
         <v>50</v>
       </c>
       <c r="G198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5732,7 +5738,7 @@
         <v>109</v>
       </c>
       <c r="G199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5774,7 +5780,7 @@
         <v>50</v>
       </c>
       <c r="G201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5795,7 +5801,7 @@
         <v>50</v>
       </c>
       <c r="G202" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5837,7 +5843,7 @@
         <v>50</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5879,7 +5885,7 @@
         <v>50</v>
       </c>
       <c r="G206" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5900,7 +5906,7 @@
         <v>50</v>
       </c>
       <c r="G207" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5921,7 +5927,7 @@
         <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5942,7 +5948,7 @@
         <v>101</v>
       </c>
       <c r="G209" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5984,7 +5990,7 @@
         <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6005,7 +6011,7 @@
         <v>50</v>
       </c>
       <c r="G212" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6026,7 +6032,7 @@
         <v>50</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6047,7 +6053,7 @@
         <v>50</v>
       </c>
       <c r="G214" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6068,7 +6074,7 @@
         <v>50</v>
       </c>
       <c r="G215" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,7 +6095,7 @@
         <v>50</v>
       </c>
       <c r="G216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,7 +6116,7 @@
         <v>50</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6124,14 +6130,14 @@
       </c>
       <c r="D218" t="str">
         <f t="shared" si="10"/>
-        <v>Edmond Beaver</v>
+        <v xml:space="preserve">Edmond Beaver-Dantes </v>
       </c>
       <c r="F218">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G218" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6152,7 +6158,7 @@
         <v>102</v>
       </c>
       <c r="G219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6173,7 +6179,7 @@
         <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6215,7 +6221,7 @@
         <v>50</v>
       </c>
       <c r="G222" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6236,7 +6242,7 @@
         <v>50</v>
       </c>
       <c r="G223" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,7 +6263,7 @@
         <v>67</v>
       </c>
       <c r="G224" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6278,7 +6284,7 @@
         <v>50</v>
       </c>
       <c r="G225" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6320,7 +6326,7 @@
         <v>50</v>
       </c>
       <c r="G227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6341,7 +6347,7 @@
         <v>50</v>
       </c>
       <c r="G228" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6362,7 +6368,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6383,7 +6389,7 @@
         <v>50</v>
       </c>
       <c r="G230" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6404,7 +6410,7 @@
         <v>50</v>
       </c>
       <c r="G231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,7 +6431,7 @@
         <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6446,7 +6452,7 @@
         <v>50</v>
       </c>
       <c r="G233" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6467,7 +6473,7 @@
         <v>50</v>
       </c>
       <c r="G234" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6488,7 +6494,7 @@
         <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6509,7 +6515,7 @@
         <v>50</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,7 +6557,7 @@
         <v>50</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,7 +6578,7 @@
         <v>155</v>
       </c>
       <c r="G239" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6586,14 +6592,14 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="10"/>
-        <v>JoJo Burr</v>
+        <v xml:space="preserve">JoJo Burr-Kirven </v>
       </c>
       <c r="F240">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G240" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6614,7 +6620,7 @@
         <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6635,7 +6641,7 @@
         <v>50</v>
       </c>
       <c r="G242" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6656,7 +6662,7 @@
         <v>50</v>
       </c>
       <c r="G243" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6677,7 +6683,7 @@
         <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6698,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="G245" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6719,7 +6725,7 @@
         <v>50</v>
       </c>
       <c r="G246" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6740,7 +6746,7 @@
         <v>50</v>
       </c>
       <c r="G247" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="G248" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6782,7 +6788,7 @@
         <v>50</v>
       </c>
       <c r="G249" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6803,7 +6809,7 @@
         <v>50</v>
       </c>
       <c r="G250" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6824,7 +6830,7 @@
         <v>50</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6845,7 +6851,7 @@
         <v>50</v>
       </c>
       <c r="G252" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6866,7 +6872,7 @@
         <v>50</v>
       </c>
       <c r="G253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6887,7 +6893,7 @@
         <v>50</v>
       </c>
       <c r="G254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6908,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="G255" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6950,7 +6956,7 @@
         <v>50</v>
       </c>
       <c r="G257" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6971,7 +6977,7 @@
         <v>50</v>
       </c>
       <c r="G258" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6984,7 +6990,7 @@
         <v>S15</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" ref="D259:D322" si="13">MID(G259,FIND("-",G259)+2,FIND("-",G259,FIND("-",G259)+1)-FIND("-",G259)-2)</f>
+        <f t="shared" ref="D259:D322" si="13">MID(G259,FIND("- ",G259)+2,FIND("- ",G259,FIND("- ",G259)+1)-FIND("- ",G259)-2)</f>
         <v xml:space="preserve">Michael Rood </v>
       </c>
       <c r="F259">
@@ -6992,7 +6998,7 @@
         <v>50</v>
       </c>
       <c r="G259" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7034,7 +7040,7 @@
         <v>50</v>
       </c>
       <c r="G261" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7055,7 +7061,7 @@
         <v>50</v>
       </c>
       <c r="G262" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7076,7 +7082,7 @@
         <v>50</v>
       </c>
       <c r="G263" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7097,7 +7103,7 @@
         <v>50</v>
       </c>
       <c r="G264" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7118,7 +7124,7 @@
         <v>50</v>
       </c>
       <c r="G265" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7139,7 +7145,7 @@
         <v>50</v>
       </c>
       <c r="G266" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7160,7 +7166,7 @@
         <v>50</v>
       </c>
       <c r="G267" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7181,7 +7187,7 @@
         <v>50</v>
       </c>
       <c r="G268" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7202,7 +7208,7 @@
         <v>50</v>
       </c>
       <c r="G269" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7244,7 +7250,7 @@
         <v>50</v>
       </c>
       <c r="G271" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7286,7 +7292,7 @@
         <v>50</v>
       </c>
       <c r="G273" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7307,7 +7313,7 @@
         <v>50</v>
       </c>
       <c r="G274" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7328,7 +7334,7 @@
         <v>50</v>
       </c>
       <c r="G275" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7349,7 +7355,7 @@
         <v>50</v>
       </c>
       <c r="G276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7370,7 +7376,7 @@
         <v>133</v>
       </c>
       <c r="G277" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7391,7 +7397,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7412,7 +7418,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7433,7 +7439,7 @@
         <v>50</v>
       </c>
       <c r="G280" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7496,7 +7502,7 @@
         <v>64</v>
       </c>
       <c r="G283" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7517,7 +7523,7 @@
         <v>50</v>
       </c>
       <c r="G284" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7559,7 +7565,7 @@
         <v>50</v>
       </c>
       <c r="G286" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7580,7 +7586,7 @@
         <v>50</v>
       </c>
       <c r="G287" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7601,7 +7607,7 @@
         <v>50</v>
       </c>
       <c r="G288" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7622,7 +7628,7 @@
         <v>50</v>
       </c>
       <c r="G289" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7643,7 +7649,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7664,7 +7670,7 @@
         <v>50</v>
       </c>
       <c r="G291" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7685,7 +7691,7 @@
         <v>57</v>
       </c>
       <c r="G292" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7706,7 +7712,7 @@
         <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7727,7 +7733,7 @@
         <v>50</v>
       </c>
       <c r="G294" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -7748,7 +7754,7 @@
         <v>50</v>
       </c>
       <c r="G295" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -7769,7 +7775,7 @@
         <v>50</v>
       </c>
       <c r="G296" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -7790,7 +7796,7 @@
         <v>243</v>
       </c>
       <c r="G297" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -7811,7 +7817,7 @@
         <v>517</v>
       </c>
       <c r="G298" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -7832,7 +7838,7 @@
         <v>224</v>
       </c>
       <c r="G299" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -7853,7 +7859,7 @@
         <v>410</v>
       </c>
       <c r="G300" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -7874,7 +7880,7 @@
         <v>620</v>
       </c>
       <c r="G301" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -7895,7 +7901,7 @@
         <v>759</v>
       </c>
       <c r="G302" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -7916,7 +7922,7 @@
         <v>686</v>
       </c>
       <c r="G303" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -7937,7 +7943,7 @@
         <v>229</v>
       </c>
       <c r="G304" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -7958,7 +7964,7 @@
         <v>238</v>
       </c>
       <c r="G305" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -7979,7 +7985,7 @@
         <v>175</v>
       </c>
       <c r="G306" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8000,7 +8006,7 @@
         <v>802</v>
       </c>
       <c r="G307" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -8021,7 +8027,7 @@
         <v>901</v>
       </c>
       <c r="G308" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -8042,7 +8048,7 @@
         <v>150</v>
       </c>
       <c r="G309" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8063,7 +8069,7 @@
         <v>579</v>
       </c>
       <c r="G310" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -8084,7 +8090,7 @@
         <v>501</v>
       </c>
       <c r="G311" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8105,7 +8111,7 @@
         <v>197</v>
       </c>
       <c r="G312" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -8126,7 +8132,7 @@
         <v>336</v>
       </c>
       <c r="G313" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -8147,7 +8153,7 @@
         <v>894</v>
       </c>
       <c r="G314" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8168,7 +8174,7 @@
         <v>916</v>
       </c>
       <c r="G315" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8189,7 +8195,7 @@
         <v>201</v>
       </c>
       <c r="G316" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -8210,7 +8216,7 @@
         <v>161</v>
       </c>
       <c r="G317" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -8231,7 +8237,7 @@
         <v>984</v>
       </c>
       <c r="G318" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8252,7 +8258,7 @@
         <v>339</v>
       </c>
       <c r="G319" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8273,7 +8279,7 @@
         <v>811</v>
       </c>
       <c r="G320" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8294,7 +8300,7 @@
         <v>1158</v>
       </c>
       <c r="G321" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8315,7 +8321,7 @@
         <v>1169</v>
       </c>
       <c r="G322" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8324,19 +8330,19 @@
         <v>7650</v>
       </c>
       <c r="B323" t="str">
-        <f>MID(G323,FIND("(",G323)+1,FIND(")",G323)-FIND("(",G323)-1)</f>
+        <f t="shared" ref="B323:B354" si="15">MID(G323,FIND("(",G323)+1,FIND(")",G323)-FIND("(",G323)-1)</f>
         <v>S7</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" ref="D323:D373" si="15">MID(G323,FIND("-",G323)+2,FIND("-",G323,FIND("-",G323)+1)-FIND("-",G323)-2)</f>
+        <f t="shared" ref="D323:D375" si="16">MID(G323,FIND("- ",G323)+2,FIND("- ",G323,FIND("- ",G323)+1)-FIND("- ",G323)-2)</f>
         <v xml:space="preserve">Vladimir Fyodorovich </v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F373" si="16">MID(G323,FIND("TPE: ",G323)+5,FIND(", ",G323,FIND("TPE: ",G323))-FIND("TPE: ",G323)-5)+0</f>
+        <f t="shared" ref="F323:F374" si="17">MID(G323,FIND("TPE: ",G323)+5,FIND(", ",G323,FIND("TPE: ",G323))-FIND("TPE: ",G323)-5)+0</f>
         <v>1146</v>
       </c>
       <c r="G323" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8345,19 +8351,19 @@
         <v>7874</v>
       </c>
       <c r="B324" t="str">
-        <f>MID(G324,FIND("(",G324)+1,FIND(")",G324)-FIND("(",G324)-1)</f>
+        <f t="shared" si="15"/>
         <v>S7</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Zach Skinner </v>
       </c>
       <c r="F324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>463</v>
       </c>
       <c r="G324" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8366,19 +8372,19 @@
         <v>8524</v>
       </c>
       <c r="B325" t="str">
-        <f>MID(G325,FIND("(",G325)+1,FIND(")",G325)-FIND("(",G325)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Balthazar Crindy </v>
       </c>
       <c r="F325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>510</v>
       </c>
       <c r="G325" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8387,19 +8393,19 @@
         <v>7941</v>
       </c>
       <c r="B326" t="str">
-        <f>MID(G326,FIND("(",G326)+1,FIND(")",G326)-FIND("(",G326)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D326" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Beat Meoff </v>
       </c>
       <c r="F326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170</v>
       </c>
       <c r="G326" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8408,19 +8414,19 @@
         <v>8172</v>
       </c>
       <c r="B327" t="str">
-        <f>MID(G327,FIND("(",G327)+1,FIND(")",G327)-FIND("(",G327)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D327" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Ben Horne </v>
       </c>
       <c r="F327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>980</v>
       </c>
       <c r="G327" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8429,19 +8435,19 @@
         <v>8034</v>
       </c>
       <c r="B328" t="str">
-        <f>MID(G328,FIND("(",G328)+1,FIND(")",G328)-FIND("(",G328)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D328" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Brad Pennington </v>
       </c>
       <c r="F328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>688</v>
       </c>
       <c r="G328" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8450,19 +8456,19 @@
         <v>7930</v>
       </c>
       <c r="B329" t="str">
-        <f>MID(G329,FIND("(",G329)+1,FIND(")",G329)-FIND("(",G329)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D329" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Chad Pennington </v>
       </c>
       <c r="F329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1142</v>
       </c>
       <c r="G329" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8471,19 +8477,19 @@
         <v>7976</v>
       </c>
       <c r="B330" t="str">
-        <f>MID(G330,FIND("(",G330)+1,FIND(")",G330)-FIND("(",G330)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D330" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Childish Gambino </v>
       </c>
       <c r="F330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1004</v>
       </c>
       <c r="G330" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8492,19 +8498,19 @@
         <v>8231</v>
       </c>
       <c r="B331" t="str">
-        <f>MID(G331,FIND("(",G331)+1,FIND(")",G331)-FIND("(",G331)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D331" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">D.J. Riddick </v>
       </c>
       <c r="F331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="G331" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8513,19 +8519,19 @@
         <v>8230</v>
       </c>
       <c r="B332" t="str">
-        <f>MID(G332,FIND("(",G332)+1,FIND(")",G332)-FIND("(",G332)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D332" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Fonz Nuno </v>
       </c>
       <c r="F332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="G332" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8534,19 +8540,19 @@
         <v>8209</v>
       </c>
       <c r="B333" t="str">
-        <f>MID(G333,FIND("(",G333)+1,FIND(")",G333)-FIND("(",G333)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D333" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Hammer Jack </v>
       </c>
       <c r="F333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="G333" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8555,19 +8561,19 @@
         <v>8249</v>
       </c>
       <c r="B334" t="str">
-        <f>MID(G334,FIND("(",G334)+1,FIND(")",G334)-FIND("(",G334)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D334" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Harry Balzac </v>
       </c>
       <c r="F334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="G334" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8576,19 +8582,19 @@
         <v>8151</v>
       </c>
       <c r="B335" t="str">
-        <f>MID(G335,FIND("(",G335)+1,FIND(")",G335)-FIND("(",G335)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D335" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Justin Davis </v>
       </c>
       <c r="F335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="G335" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8597,19 +8603,19 @@
         <v>8344</v>
       </c>
       <c r="B336" t="str">
-        <f>MID(G336,FIND("(",G336)+1,FIND(")",G336)-FIND("(",G336)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D336" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Klaus DerFisch </v>
       </c>
       <c r="F336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="G336" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -8618,19 +8624,19 @@
         <v>8396</v>
       </c>
       <c r="B337" t="str">
-        <f>MID(G337,FIND("(",G337)+1,FIND(")",G337)-FIND("(",G337)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D337" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Omar Wrong</v>
       </c>
       <c r="F337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>146</v>
       </c>
       <c r="G337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -8639,19 +8645,19 @@
         <v>8030</v>
       </c>
       <c r="B338" t="str">
-        <f>MID(G338,FIND("(",G338)+1,FIND(")",G338)-FIND("(",G338)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D338" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Ramadan Steve </v>
       </c>
       <c r="F338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>152</v>
       </c>
       <c r="G338" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -8660,19 +8666,19 @@
         <v>7834</v>
       </c>
       <c r="B339" t="str">
-        <f>MID(G339,FIND("(",G339)+1,FIND(")",G339)-FIND("(",G339)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D339" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Rickey Ramero </v>
       </c>
       <c r="F339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>551</v>
       </c>
       <c r="G339" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8681,19 +8687,19 @@
         <v>8256</v>
       </c>
       <c r="B340" t="str">
-        <f>MID(G340,FIND("(",G340)+1,FIND(")",G340)-FIND("(",G340)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Seth Wallace </v>
       </c>
       <c r="F340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="G340" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -8702,19 +8708,19 @@
         <v>7933</v>
       </c>
       <c r="B341" t="str">
-        <f>MID(G341,FIND("(",G341)+1,FIND(")",G341)-FIND("(",G341)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D341" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Thad Pennington </v>
       </c>
       <c r="F341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>713</v>
       </c>
       <c r="G341" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -8723,19 +8729,19 @@
         <v>8297</v>
       </c>
       <c r="B342" t="str">
-        <f>MID(G342,FIND("(",G342)+1,FIND(")",G342)-FIND("(",G342)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D342" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Vance Sachs </v>
       </c>
       <c r="F342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>81</v>
       </c>
       <c r="G342" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -8744,19 +8750,19 @@
         <v>8061</v>
       </c>
       <c r="B343" t="str">
-        <f>MID(G343,FIND("(",G343)+1,FIND(")",G343)-FIND("(",G343)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D343" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Viggo Squanch </v>
       </c>
       <c r="F343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>779</v>
       </c>
       <c r="G343" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -8765,19 +8771,19 @@
         <v>7904</v>
       </c>
       <c r="B344" t="str">
-        <f>MID(G344,FIND("(",G344)+1,FIND(")",G344)-FIND("(",G344)-1)</f>
+        <f t="shared" si="15"/>
         <v>S8</v>
       </c>
       <c r="D344" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">William H. Harrison </v>
       </c>
       <c r="F344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>882</v>
       </c>
       <c r="G344" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -8786,19 +8792,19 @@
         <v>8693</v>
       </c>
       <c r="B345" t="str">
-        <f>MID(G345,FIND("(",G345)+1,FIND(")",G345)-FIND("(",G345)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D345" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Alsan Arshad </v>
       </c>
       <c r="F345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="G345" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -8807,19 +8813,19 @@
         <v>9076</v>
       </c>
       <c r="B346" t="str">
-        <f>MID(G346,FIND("(",G346)+1,FIND(")",G346)-FIND("(",G346)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D346" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Andreas Metaxas </v>
       </c>
       <c r="F346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>381</v>
       </c>
       <c r="G346" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -8828,19 +8834,19 @@
         <v>8797</v>
       </c>
       <c r="B347" t="str">
-        <f>MID(G347,FIND("(",G347)+1,FIND(")",G347)-FIND("(",G347)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D347" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Barnaby Earl </v>
       </c>
       <c r="F347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>214</v>
       </c>
       <c r="G347" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,19 +8855,19 @@
         <v>8553</v>
       </c>
       <c r="B348" t="str">
-        <f>MID(G348,FIND("(",G348)+1,FIND(")",G348)-FIND("(",G348)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D348" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Bucky Barnes </v>
       </c>
       <c r="F348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>985</v>
       </c>
       <c r="G348" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -8870,19 +8876,19 @@
         <v>8626</v>
       </c>
       <c r="B349" t="str">
-        <f>MID(G349,FIND("(",G349)+1,FIND(")",G349)-FIND("(",G349)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D349" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Daquan Richardson </v>
       </c>
       <c r="F349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="G349" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -8891,19 +8897,19 @@
         <v>8613</v>
       </c>
       <c r="B350" t="str">
-        <f>MID(G350,FIND("(",G350)+1,FIND(")",G350)-FIND("(",G350)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D350" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Deangelo Warren </v>
       </c>
       <c r="F350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="G350" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -8912,19 +8918,19 @@
         <v>8580</v>
       </c>
       <c r="B351" t="str">
-        <f>MID(G351,FIND("(",G351)+1,FIND(")",G351)-FIND("(",G351)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D351" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Declan Harp </v>
       </c>
       <c r="F351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>740</v>
       </c>
       <c r="G351" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -8933,19 +8939,19 @@
         <v>9132</v>
       </c>
       <c r="B352" t="str">
-        <f>MID(G352,FIND("(",G352)+1,FIND(")",G352)-FIND("(",G352)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Deion Jackson </v>
       </c>
       <c r="F352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="G352" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -8954,19 +8960,19 @@
         <v>8634</v>
       </c>
       <c r="B353" t="str">
-        <f>MID(G353,FIND("(",G353)+1,FIND(")",G353)-FIND("(",G353)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D353" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Emilio Ramero </v>
       </c>
       <c r="F353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="G353" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -8975,19 +8981,19 @@
         <v>9110</v>
       </c>
       <c r="B354" t="str">
-        <f>MID(G354,FIND("(",G354)+1,FIND(")",G354)-FIND("(",G354)-1)</f>
+        <f t="shared" si="15"/>
         <v>S9</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Fin Jameson </v>
       </c>
       <c r="F354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="G354" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -8996,19 +9002,19 @@
         <v>8771</v>
       </c>
       <c r="B355" t="str">
-        <f>MID(G355,FIND("(",G355)+1,FIND(")",G355)-FIND("(",G355)-1)</f>
+        <f t="shared" ref="B355:B374" si="18">MID(G355,FIND("(",G355)+1,FIND(")",G355)-FIND("(",G355)-1)</f>
         <v>S9</v>
       </c>
       <c r="D355" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Gus T.T. Showbiz </v>
       </c>
       <c r="F355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>976</v>
       </c>
       <c r="G355" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -9017,19 +9023,19 @@
         <v>8627</v>
       </c>
       <c r="B356" t="str">
-        <f>MID(G356,FIND("(",G356)+1,FIND(")",G356)-FIND("(",G356)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D356" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Jai Turner </v>
       </c>
       <c r="F356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="G356" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9038,19 +9044,19 @@
         <v>8932</v>
       </c>
       <c r="B357" t="str">
-        <f>MID(G357,FIND("(",G357)+1,FIND(")",G357)-FIND("(",G357)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D357" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Jesse Marchand </v>
       </c>
       <c r="F357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
       <c r="G357" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9059,19 +9065,19 @@
         <v>9117</v>
       </c>
       <c r="B358" t="str">
-        <f>MID(G358,FIND("(",G358)+1,FIND(")",G358)-FIND("(",G358)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D358" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">John Springfield </v>
       </c>
       <c r="F358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="G358" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -9080,19 +9086,19 @@
         <v>8851</v>
       </c>
       <c r="B359" t="str">
-        <f>MID(G359,FIND("(",G359)+1,FIND(")",G359)-FIND("(",G359)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D359" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Kolby Deringer </v>
       </c>
       <c r="F359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1038</v>
       </c>
       <c r="G359" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9101,19 +9107,19 @@
         <v>9009</v>
       </c>
       <c r="B360" t="str">
-        <f>MID(G360,FIND("(",G360)+1,FIND(")",G360)-FIND("(",G360)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D360" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Kyle Corbett </v>
       </c>
       <c r="F360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="G360" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -9122,19 +9128,19 @@
         <v>8857</v>
       </c>
       <c r="B361" t="str">
-        <f>MID(G361,FIND("(",G361)+1,FIND(")",G361)-FIND("(",G361)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D361" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">LaMarcus Strike </v>
       </c>
       <c r="F361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>169</v>
       </c>
       <c r="G361" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9143,19 +9149,19 @@
         <v>8834</v>
       </c>
       <c r="B362" t="str">
-        <f>MID(G362,FIND("(",G362)+1,FIND(")",G362)-FIND("(",G362)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D362" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Marquise Brown </v>
       </c>
       <c r="F362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>930</v>
       </c>
       <c r="G362" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9164,19 +9170,19 @@
         <v>9037</v>
       </c>
       <c r="B363" t="str">
-        <f>MID(G363,FIND("(",G363)+1,FIND(")",G363)-FIND("(",G363)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D363" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Oskar Ludvig </v>
       </c>
       <c r="F363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="G363" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9185,19 +9191,19 @@
         <v>8721</v>
       </c>
       <c r="B364" t="str">
-        <f>MID(G364,FIND("(",G364)+1,FIND(")",G364)-FIND("(",G364)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D364" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Ricardo Jones </v>
       </c>
       <c r="F364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
       <c r="G364" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -9206,19 +9212,19 @@
         <v>8740</v>
       </c>
       <c r="B365" t="str">
-        <f>MID(G365,FIND("(",G365)+1,FIND(")",G365)-FIND("(",G365)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D365" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Ricky Adams </v>
       </c>
       <c r="F365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>676</v>
       </c>
       <c r="G365" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9227,19 +9233,19 @@
         <v>8859</v>
       </c>
       <c r="B366" t="str">
-        <f>MID(G366,FIND("(",G366)+1,FIND(")",G366)-FIND("(",G366)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D366" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Robert Jordan </v>
       </c>
       <c r="F366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="G366" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9248,19 +9254,19 @@
         <v>8653</v>
       </c>
       <c r="B367" t="str">
-        <f>MID(G367,FIND("(",G367)+1,FIND(")",G367)-FIND("(",G367)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D367" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">ShaDarrien LaMelllana </v>
       </c>
       <c r="F367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>259</v>
       </c>
       <c r="G367" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9269,19 +9275,19 @@
         <v>8796</v>
       </c>
       <c r="B368" t="str">
-        <f>MID(G368,FIND("(",G368)+1,FIND(")",G368)-FIND("(",G368)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D368" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Tyler Griffin </v>
       </c>
       <c r="F368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>86</v>
       </c>
       <c r="G368" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9290,19 +9296,19 @@
         <v>8751</v>
       </c>
       <c r="B369" t="str">
-        <f>MID(G369,FIND("(",G369)+1,FIND(")",G369)-FIND("(",G369)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D369" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Vinny Valentine </v>
       </c>
       <c r="F369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>978</v>
       </c>
       <c r="G369" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9311,19 +9317,19 @@
         <v>8717</v>
       </c>
       <c r="B370" t="str">
-        <f>MID(G370,FIND("(",G370)+1,FIND(")",G370)-FIND("(",G370)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D370" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Xavier Flash </v>
       </c>
       <c r="F370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>907</v>
       </c>
       <c r="G370" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9332,19 +9338,19 @@
         <v>8552</v>
       </c>
       <c r="B371" t="str">
-        <f>MID(G371,FIND("(",G371)+1,FIND(")",G371)-FIND("(",G371)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D371" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Young Spaghetti </v>
       </c>
       <c r="F371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="G371" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -9353,19 +9359,19 @@
         <v>8551</v>
       </c>
       <c r="B372" t="str">
-        <f>MID(G372,FIND("(",G372)+1,FIND(")",G372)-FIND("(",G372)-1)</f>
+        <f t="shared" si="18"/>
         <v>S9</v>
       </c>
       <c r="D372" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Zapp Brannigan </v>
       </c>
       <c r="F372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>581</v>
       </c>
       <c r="G372" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9374,19 +9380,61 @@
         <v>10429</v>
       </c>
       <c r="B373" t="str">
-        <f>MID(G373,FIND("(",G373)+1,FIND(")",G373)-FIND("(",G373)-1)</f>
+        <f t="shared" si="18"/>
         <v>S11</v>
       </c>
       <c r="D373" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Jaylin Hobbs </v>
       </c>
       <c r="F373">
+        <f t="shared" si="17"/>
+        <v>273</v>
+      </c>
+      <c r="G373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>[1]!Numerize(MID(G374,FIND("=",G374),10))</f>
+        <v>11988</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="18"/>
+        <v>S15</v>
+      </c>
+      <c r="D374" t="str">
         <f t="shared" si="16"/>
-        <v>273</v>
-      </c>
-      <c r="G373" t="s">
-        <v>374</v>
+        <v xml:space="preserve">André Thornton </v>
+      </c>
+      <c r="F374">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="G374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>[1]!Numerize(MID(G375,FIND("=",G375),10))</f>
+        <v>12778</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" ref="B375" si="19">MID(G375,FIND("(",G375)+1,FIND(")",G375)-FIND("(",G375)-1)</f>
+        <v>S15</v>
+      </c>
+      <c r="D375" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">RKANSAW N/A </v>
+      </c>
+      <c r="F375">
+        <f t="shared" ref="F375" si="20">MID(G375,FIND("TPE: ",G375)+5,FIND(", ",G375,FIND("TPE: ",G375))-FIND("TPE: ",G375)-5)+0</f>
+        <v>50</v>
+      </c>
+      <c r="G375" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
